--- a/data/applications.xlsx
+++ b/data/applications.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="134">
   <si>
     <t>id</t>
   </si>
@@ -46,10 +46,373 @@
     <t>interviewDate</t>
   </si>
   <si>
+    <t>offerDate</t>
+  </si>
+  <si>
+    <t>rejectedDate</t>
+  </si>
+  <si>
     <t>createdAt</t>
   </si>
   <si>
     <t>updatedAt</t>
+  </si>
+  <si>
+    <t>8442f1a1-68b7-4215-9320-a1105ed2854b</t>
+  </si>
+  <si>
+    <t>https://example.com/job-posting</t>
+  </si>
+  <si>
+    <t>Example Job Posting</t>
+  </si>
+  <si>
+    <t>Example Company</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>This is a sample application. You can edit or delete it! Start by adding your own job links.</t>
+  </si>
+  <si>
+    <t>2025-12-06T01:30:35.790Z</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2025-12-06T01:30:38.961Z</t>
+  </si>
+  <si>
+    <t>2025-12-06T01:27:11.176Z</t>
+  </si>
+  <si>
+    <t>2025-12-06T01:30:54.646Z</t>
+  </si>
+  <si>
+    <t>0d40b3f3-983f-466a-b7f0-1f142395a9fc</t>
+  </si>
+  <si>
+    <t>https://www.experis.com/en/candidate/jobapply?id=378716&amp;job_id=rn-378716&amp;client_id=9a7eadb3-862c-4f59-886b-d6c75050e0b5&amp;utm_medium=Appcast&amp;utm_source=Linkedin&amp;utm_campaign=Linkedin%20Slot%20-%20Slot&amp;utm_term=Java%20Developer&amp;utm_content=67334931710&amp;ccuid=67334931710&amp;referer=appcast.io</t>
+  </si>
+  <si>
+    <t>URL:</t>
+  </si>
+  <si>
+    <t>2025-12-06T01:31:52.804Z</t>
+  </si>
+  <si>
+    <t>f53be081-ded5-4a59-a7c0-8390fcf9805d</t>
+  </si>
+  <si>
+    <t>https://myjobs.adp.com/ecsfederal/cx/job-details?reqId=5001166381006&amp;rb=LINKEDIN</t>
+  </si>
+  <si>
+    <t>12c7fea1-7b84-4504-a227-307edc790c67</t>
+  </si>
+  <si>
+    <t>https://generalmotors.wd5.myworkdayjobs.com/Careers_GM/job/Warren-Michigan-United-States-of-America/Senior-Software-Engineer--Full-Stack_JR-202517756-1?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>098e9715-3889-4bca-ba5e-5f07aeec6f71</t>
+  </si>
+  <si>
+    <t>https://careers.nationwide.com/sr-engineer-software-engineer-java-angular/job/39EC2638B6D4E8D210B627C45F69DE8A?src=LinkedIn</t>
+  </si>
+  <si>
+    <t>8d857472-046e-4b10-8d54-042135b27155</t>
+  </si>
+  <si>
+    <t>https://job-boards.greenhouse.io/nisc/jobs/7445273?gh_src=kpbk87x81us</t>
+  </si>
+  <si>
+    <t>afbbdb69-04ef-4e9d-a664-3a9bd9868bb0</t>
+  </si>
+  <si>
+    <t>https://aexp.eightfold.ai/careers/job/38966636?hl=en&amp;utm_source=linkedin&amp;domain=aexp.com</t>
+  </si>
+  <si>
+    <t>4f109f6b-baee-4100-8ba9-85e0ecfb59de</t>
+  </si>
+  <si>
+    <t>https://us.bny.talentnet.community/jobs/bbd76ef0-caab-437b-86fa-5506105c84b4?src=JB-10200</t>
+  </si>
+  <si>
+    <t>26dc05b3-d9e4-4ee6-8a24-1290955addce</t>
+  </si>
+  <si>
+    <t>https://careers.hhs.texas.gov/hhscjobs/job/AUSTIN-Senior-Java-Developer-TX-73301/1347531500/</t>
+  </si>
+  <si>
+    <t>fe6fa00b-4f02-4d95-af2a-6d07e107621c</t>
+  </si>
+  <si>
+    <t>https://job-boards.eu.greenhouse.io/nice/jobs/4723525101?gh_jid=4723525101</t>
+  </si>
+  <si>
+    <t>b64d0804-0341-4059-8342-57323ebdcda9</t>
+  </si>
+  <si>
+    <t>https://usource.ripplehire.com/candidate/?token=8YxWjpwDhdL62DFYUIcQ&amp;lang=en&amp;source=USTLINKEDIN&amp;ref=USTLINKEDIN#detail/job/49174</t>
+  </si>
+  <si>
+    <t>06a336b7-f4d6-4bb2-87b0-7d42e388bade</t>
+  </si>
+  <si>
+    <t>https://www.esri.com/careers/4998060007?title=java-software-engineer-ii&amp;gh_src=e90f82c87us&amp;gh_jid=4998060007</t>
+  </si>
+  <si>
+    <t>50efcc96-31de-4acd-91fd-b33f95494b09</t>
+  </si>
+  <si>
+    <t>https://careers.fisglobal.com/us/en/job/FIGLUSJR0303001EXTERNAL/Backend-Software-Engineer-II?utm_source=linkedin&amp;utm_medium=phenom-feeds</t>
+  </si>
+  <si>
+    <t>6fd01845-a632-4a68-856e-ddae69692fcf</t>
+  </si>
+  <si>
+    <t>https://job-boards.greenhouse.io/greenhouse/jobs/7296545?gh_jid=7296545&amp;gh_src=154e85cb1us</t>
+  </si>
+  <si>
+    <t>beabf0d4-52c2-41e6-bf22-4dfbc91dce74</t>
+  </si>
+  <si>
+    <t>https://careers.servicenow.com/jobs/744000097130916/senior-software-engineer/?trid=2d92f286-613b-4daf-9dfa-6340ffbecf73</t>
+  </si>
+  <si>
+    <t>8dcb1506-8640-4646-a1cd-bbfbe33fa52a</t>
+  </si>
+  <si>
+    <t>https://explore.jobs.netflix.net/careers/job/790313149672?microsite=netflix.com&amp;utm_source=&amp;domain=netflix.com</t>
+  </si>
+  <si>
+    <t>69a95d8d-34c5-4a39-8db5-b8f2172e35b1</t>
+  </si>
+  <si>
+    <t>https://www.att.jobs/job/-/senior-software-engineering/117/89146546240</t>
+  </si>
+  <si>
+    <t>e9efcf2f-8dbc-4d9d-a7a2-66e5d8e3139b</t>
+  </si>
+  <si>
+    <t>https://generalmotors.wd5.myworkdayjobs.com/en-GB/Careers_GM/job/Warren-Michigan-United-States-of-America/Senior-Software-Engineer--Full-Stack_JR-202517756-1?source=</t>
+  </si>
+  <si>
+    <t>fde70588-b751-45f8-b289-8467df8406e2</t>
+  </si>
+  <si>
+    <t>https://gen.wd1.myworkdayjobs.com/careers/job/USA---California-Mountain-View/Princ-Software-Engineer_54001?codes=JB-&amp;source=</t>
+  </si>
+  <si>
+    <t>7fa8ec8d-bc83-42e1-b8bf-989ddee70697</t>
+  </si>
+  <si>
+    <t>https://bloomberg.avature.net/careers/JobDetail/Senior-Software-Engineer-Office-Apps/16169?utm_medium=recruitment&amp;utm_content=jobreq&amp;utm_source=&amp;source=</t>
+  </si>
+  <si>
+    <t>b4580973-a647-4775-988e-52b11e42ea5d</t>
+  </si>
+  <si>
+    <t>https://careers.draftkings.com/jobs/jr12926/senior-software-engineer-backend/</t>
+  </si>
+  <si>
+    <t>f3ec3a2e-ac25-4066-86cc-f317187595c9</t>
+  </si>
+  <si>
+    <t>https://careers.usbank.com/global/en/job/UBNAGLOBAL20250028718EXTERNALENGLOBAL/Software-Engineer-1-JSON-Java-Spring-Boot?utm_source=&amp;utm_medium=phenom-feeds</t>
+  </si>
+  <si>
+    <t>47696a6c-30f4-42fc-ad60-f2b4d8ae5d90</t>
+  </si>
+  <si>
+    <t>https://healthcare.wd1.myworkdayjobs.com/Search/job/US-Utah-Murray/Senior-Software-Engineer_R01125905?source=</t>
+  </si>
+  <si>
+    <t>07680870-780b-4a35-91df-77a3627ecfd4</t>
+  </si>
+  <si>
+    <t>https://job-boards.greenhouse.io/shipbobinc/jobs/4625384005?gh_src=c8a4fcd95us</t>
+  </si>
+  <si>
+    <t>9372f724-5f67-4cc2-bf6d-ceef53cfba0b</t>
+  </si>
+  <si>
+    <t>https://careers.unitedhealthgroup.com/job/22711571/sr-software-engineer-remote-minnetonka-mn/?src=JB-22455&amp;utm_source=&amp;utm_medium=job_posting</t>
+  </si>
+  <si>
+    <t>43e0bbe8-04f1-49df-b20a-a8673dba4c51</t>
+  </si>
+  <si>
+    <t>https://www.schwabjobs.com/job/-/-/33727/88352728608?iis=linkedin_job_wrapping&amp;iisn=rd_linkedin_job_wrapping&amp;utm_source=&amp;utm_medium=job_posting&amp;utm_campaign=Annual_Media&amp;utm_content=social_media&amp;utm_term=383638107&amp;ss=paid</t>
+  </si>
+  <si>
+    <t>d623f1b0-7a9e-421e-b6bb-20158adb67b9</t>
+  </si>
+  <si>
+    <t>https://careers.deere.com/careers/job/137478114997?utm_source=&amp;domain=johndeere.com</t>
+  </si>
+  <si>
+    <t>76218231-b853-418d-9d25-33b7c5a45c72</t>
+  </si>
+  <si>
+    <t>https://aexp.eightfold.ai/careers/job/30533098?hl=en</t>
+  </si>
+  <si>
+    <t>87a0dd07-a138-4bad-b50c-a8d401223197</t>
+  </si>
+  <si>
+    <t>https://careers-greenstate.icims.com/jobs/4346/it-developer/job</t>
+  </si>
+  <si>
+    <t>510ffa2e-8f88-4819-b211-0eb1ada7b52b</t>
+  </si>
+  <si>
+    <t>https://symetra.eightfold.ai/careers/job/446715534662</t>
+  </si>
+  <si>
+    <t>2d55cc6b-3abb-4188-b771-11786c5e83b0</t>
+  </si>
+  <si>
+    <t>https://careers.ramseysolutions.com/jobs/16956005-software-engineer-3</t>
+  </si>
+  <si>
+    <t>ffb110cf-df86-494a-8035-ba56f9107e24</t>
+  </si>
+  <si>
+    <t>https://careers.arcfield.com/careers-home/jobs/7367/job</t>
+  </si>
+  <si>
+    <t>34635cd4-5d75-48e9-adfd-5ba916d81650</t>
+  </si>
+  <si>
+    <t>https://www.griddynamics.com/careers/vacancy/44471</t>
+  </si>
+  <si>
+    <t>38b47f49-4848-49c0-bdfd-c66eb822a796</t>
+  </si>
+  <si>
+    <t>https://liveramp.wd5.myworkdayjobs.com/en-US/LiveRampCareers/job/San-Francisco/Software-Engineer_JR011886</t>
+  </si>
+  <si>
+    <t>9877643b-7551-4e29-b2c4-9183e11597c7</t>
+  </si>
+  <si>
+    <t>https://bpubcareers.com/postings/2118</t>
+  </si>
+  <si>
+    <t>09012178-344e-4c7b-95d6-212f433aba68</t>
+  </si>
+  <si>
+    <t>https://myjobs.adp.com/ecsfederal/cx/job-details</t>
+  </si>
+  <si>
+    <t>55a23233-98cc-4ac8-86fd-84dc48a91ee0</t>
+  </si>
+  <si>
+    <t>https://job-boards.greenhouse.io/andurilindustries/jobs/4997987007</t>
+  </si>
+  <si>
+    <t>59f38f10-38f7-4e2a-aac9-045d701926a3</t>
+  </si>
+  <si>
+    <t>https://highmarkhealth.wd1.myworkdayjobs.com/en-US/highmark/job/PA-Working-at-Home---Pennsylvania/Associate-Software-Engineer_J273354</t>
+  </si>
+  <si>
+    <t>9b0fc905-d02c-4ab6-9692-287f35a154df</t>
+  </si>
+  <si>
+    <t>https://careers.equifax.com/en/jobs/j00172739/software-engineer-entry/</t>
+  </si>
+  <si>
+    <t>c5fab840-29f9-4757-ae53-0809a9d5ac5e</t>
+  </si>
+  <si>
+    <t>https://efds.fa.em5.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/55993</t>
+  </si>
+  <si>
+    <t>abc4fa58-8f25-44a5-a80b-996e7ce8c52f</t>
+  </si>
+  <si>
+    <t>https://ffive.wd5.myworkdayjobs.com/en-US/f5jobs/job/Field-WA/Software-Development-Engineer-III_RP1035592</t>
+  </si>
+  <si>
+    <t>11fbbe9d-e5ae-4302-95e9-f2f7d136756e</t>
+  </si>
+  <si>
+    <t>https://troweprice.wd5.myworkdayjobs.com/en-US/TRowePrice/job/New-York-NY/Software-Engineer--NYC-or-Baltimore--MD-_78469</t>
+  </si>
+  <si>
+    <t>bf625fe3-68bf-43a2-9672-cf4112c10f8e</t>
+  </si>
+  <si>
+    <t>https://careers.cognizant.com/global-en/jobs/00066460461/senior-java-full-stack-python-angular-with-gcp/</t>
+  </si>
+  <si>
+    <t>e0f9fa4e-bb8c-47ef-b1ad-cf133cf76d17</t>
+  </si>
+  <si>
+    <t>https://jobs.adp.com/en/jobs/271725/senior-application-developer/</t>
+  </si>
+  <si>
+    <t>24969ebb-9f07-4fd6-b9b0-52b3ca9868c6</t>
+  </si>
+  <si>
+    <t>https://careers.blackrock.com/job/-/-/45831/85274630864?source</t>
+  </si>
+  <si>
+    <t>0051603a-bc13-42ec-987d-16197feafd39</t>
+  </si>
+  <si>
+    <t>https://www.accenture.com/us-en/careers/jobdetails?id=13742359_en&amp;src</t>
+  </si>
+  <si>
+    <t>cf116b5f-0b38-416f-a744-5303ae4f1f68</t>
+  </si>
+  <si>
+    <t>https://careers.ice.com/jobs/11341?lang=en-us&amp;iis</t>
+  </si>
+  <si>
+    <t>3a022182-cee3-4e73-a78f-746fffbc80cd</t>
+  </si>
+  <si>
+    <t>https://job-boards.greenhouse.io/doordashusa/jobs/7004473</t>
+  </si>
+  <si>
+    <t>de89607e-549f-4696-97d8-733826d14ac1</t>
+  </si>
+  <si>
+    <t>https://careers.pnc.com/global/en/job/PNC1GLOBALR206143/Software-Engineer-Lead-Java-Microservices?utm_source</t>
+  </si>
+  <si>
+    <t>ad335f4e-b155-45c3-8d67-4652daa6daea</t>
+  </si>
+  <si>
+    <t>https://jobs.citi.com/job/-/-/287/89158702208?source=APPLICANT_SOURCE-3-354&amp;utm_medium=job_posting&amp;utm_campaign=nam_experienced&amp;utm_content=social_media&amp;utm_term=393702677&amp;ss=paid&amp;utm_sourc</t>
+  </si>
+  <si>
+    <t>bbcc09e6-3fba-4e27-93e0-463495f10e85</t>
+  </si>
+  <si>
+    <t>https://genesys.wd1.myworkdayjobs.com/Genesys/job/Indianapolis-IN/Senior-Software-Engineer_JR109057-2?source</t>
+  </si>
+  <si>
+    <t>d57b8c87-b372-43eb-a97b-2f3b70a15b4f</t>
+  </si>
+  <si>
+    <t>https://recruiting2.ultipro.com/TRA1034TNSC/JobBoard/0885e26f-46c3-45cc-8f3a-b849c09d3bdd/OpportunityDetail?opportunityId=63538673-66ec-4eae-a618-b2fdcc988d87&amp;source</t>
+  </si>
+  <si>
+    <t>2025-12-06T01:33:28.985Z</t>
   </si>
 </sst>
 </file>
@@ -435,13 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O105"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="13" width="15" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,9 +841,4903 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M53" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" t="s">
+        <v>32</v>
+      </c>
+      <c r="O60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" t="s">
+        <v>32</v>
+      </c>
+      <c r="O62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" t="s">
+        <v>32</v>
+      </c>
+      <c r="O63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" t="s">
+        <v>32</v>
+      </c>
+      <c r="O64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" t="s">
+        <v>32</v>
+      </c>
+      <c r="O65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66" t="s">
+        <v>25</v>
+      </c>
+      <c r="M66" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" t="s">
+        <v>25</v>
+      </c>
+      <c r="M68" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" t="s">
+        <v>32</v>
+      </c>
+      <c r="O68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" t="s">
+        <v>25</v>
+      </c>
+      <c r="J69" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" t="s">
+        <v>32</v>
+      </c>
+      <c r="O69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" t="s">
+        <v>32</v>
+      </c>
+      <c r="O70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" t="s">
+        <v>25</v>
+      </c>
+      <c r="J71" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" t="s">
+        <v>25</v>
+      </c>
+      <c r="L71" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" t="s">
+        <v>32</v>
+      </c>
+      <c r="O71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" t="s">
+        <v>25</v>
+      </c>
+      <c r="L73" t="s">
+        <v>25</v>
+      </c>
+      <c r="M73" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" t="s">
+        <v>32</v>
+      </c>
+      <c r="O73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" t="s">
+        <v>25</v>
+      </c>
+      <c r="J74" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75" t="s">
+        <v>25</v>
+      </c>
+      <c r="L75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" t="s">
+        <v>32</v>
+      </c>
+      <c r="O75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J76" t="s">
+        <v>25</v>
+      </c>
+      <c r="K76" t="s">
+        <v>25</v>
+      </c>
+      <c r="L76" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" t="s">
+        <v>32</v>
+      </c>
+      <c r="O76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" t="s">
+        <v>25</v>
+      </c>
+      <c r="J77" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" t="s">
+        <v>25</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" t="s">
+        <v>32</v>
+      </c>
+      <c r="O77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" t="s">
+        <v>25</v>
+      </c>
+      <c r="J78" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" t="s">
+        <v>25</v>
+      </c>
+      <c r="L78" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" t="s">
+        <v>32</v>
+      </c>
+      <c r="O78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" t="s">
+        <v>25</v>
+      </c>
+      <c r="L79" t="s">
+        <v>25</v>
+      </c>
+      <c r="M79" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" t="s">
+        <v>32</v>
+      </c>
+      <c r="O79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" t="s">
+        <v>32</v>
+      </c>
+      <c r="O81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" t="s">
+        <v>25</v>
+      </c>
+      <c r="L82" t="s">
+        <v>25</v>
+      </c>
+      <c r="M82" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" t="s">
+        <v>32</v>
+      </c>
+      <c r="O82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" t="s">
+        <v>32</v>
+      </c>
+      <c r="O83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" t="s">
+        <v>25</v>
+      </c>
+      <c r="J84" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" t="s">
+        <v>32</v>
+      </c>
+      <c r="O84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" t="s">
+        <v>32</v>
+      </c>
+      <c r="O85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" t="s">
+        <v>25</v>
+      </c>
+      <c r="L86" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" t="s">
+        <v>32</v>
+      </c>
+      <c r="O86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" t="s">
+        <v>25</v>
+      </c>
+      <c r="L87" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" t="s">
+        <v>32</v>
+      </c>
+      <c r="O87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88" t="s">
+        <v>25</v>
+      </c>
+      <c r="K88" t="s">
+        <v>25</v>
+      </c>
+      <c r="L88" t="s">
+        <v>25</v>
+      </c>
+      <c r="M88" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" t="s">
+        <v>32</v>
+      </c>
+      <c r="O88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" t="s">
+        <v>25</v>
+      </c>
+      <c r="J89" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" t="s">
+        <v>25</v>
+      </c>
+      <c r="L89" t="s">
+        <v>25</v>
+      </c>
+      <c r="M89" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" t="s">
+        <v>32</v>
+      </c>
+      <c r="O89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" t="s">
+        <v>25</v>
+      </c>
+      <c r="J90" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" t="s">
+        <v>25</v>
+      </c>
+      <c r="L90" t="s">
+        <v>25</v>
+      </c>
+      <c r="M90" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" t="s">
+        <v>32</v>
+      </c>
+      <c r="O90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" t="s">
+        <v>25</v>
+      </c>
+      <c r="J91" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" t="s">
+        <v>25</v>
+      </c>
+      <c r="L91" t="s">
+        <v>25</v>
+      </c>
+      <c r="M91" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" t="s">
+        <v>32</v>
+      </c>
+      <c r="O91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" t="s">
+        <v>25</v>
+      </c>
+      <c r="J92" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" t="s">
+        <v>32</v>
+      </c>
+      <c r="O92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" t="s">
+        <v>25</v>
+      </c>
+      <c r="J93" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" t="s">
+        <v>25</v>
+      </c>
+      <c r="L93" t="s">
+        <v>25</v>
+      </c>
+      <c r="M93" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" t="s">
+        <v>32</v>
+      </c>
+      <c r="O93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" t="s">
+        <v>25</v>
+      </c>
+      <c r="J94" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" t="s">
+        <v>25</v>
+      </c>
+      <c r="L94" t="s">
+        <v>25</v>
+      </c>
+      <c r="M94" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" t="s">
+        <v>32</v>
+      </c>
+      <c r="O94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" t="s">
+        <v>25</v>
+      </c>
+      <c r="J95" t="s">
+        <v>25</v>
+      </c>
+      <c r="K95" t="s">
+        <v>25</v>
+      </c>
+      <c r="L95" t="s">
+        <v>25</v>
+      </c>
+      <c r="M95" t="s">
+        <v>25</v>
+      </c>
+      <c r="N95" t="s">
+        <v>32</v>
+      </c>
+      <c r="O95" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" t="s">
+        <v>25</v>
+      </c>
+      <c r="J96" t="s">
+        <v>25</v>
+      </c>
+      <c r="K96" t="s">
+        <v>25</v>
+      </c>
+      <c r="L96" t="s">
+        <v>25</v>
+      </c>
+      <c r="M96" t="s">
+        <v>25</v>
+      </c>
+      <c r="N96" t="s">
+        <v>32</v>
+      </c>
+      <c r="O96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" t="s">
+        <v>25</v>
+      </c>
+      <c r="J97" t="s">
+        <v>25</v>
+      </c>
+      <c r="K97" t="s">
+        <v>25</v>
+      </c>
+      <c r="L97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M97" t="s">
+        <v>25</v>
+      </c>
+      <c r="N97" t="s">
+        <v>32</v>
+      </c>
+      <c r="O97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" t="s">
+        <v>22</v>
+      </c>
+      <c r="I98" t="s">
+        <v>25</v>
+      </c>
+      <c r="J98" t="s">
+        <v>25</v>
+      </c>
+      <c r="K98" t="s">
+        <v>25</v>
+      </c>
+      <c r="L98" t="s">
+        <v>25</v>
+      </c>
+      <c r="M98" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98" t="s">
+        <v>32</v>
+      </c>
+      <c r="O98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" t="s">
+        <v>25</v>
+      </c>
+      <c r="J99" t="s">
+        <v>25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>25</v>
+      </c>
+      <c r="L99" t="s">
+        <v>25</v>
+      </c>
+      <c r="M99" t="s">
+        <v>25</v>
+      </c>
+      <c r="N99" t="s">
+        <v>32</v>
+      </c>
+      <c r="O99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" t="s">
+        <v>22</v>
+      </c>
+      <c r="I100" t="s">
+        <v>25</v>
+      </c>
+      <c r="J100" t="s">
+        <v>25</v>
+      </c>
+      <c r="K100" t="s">
+        <v>25</v>
+      </c>
+      <c r="L100" t="s">
+        <v>25</v>
+      </c>
+      <c r="M100" t="s">
+        <v>25</v>
+      </c>
+      <c r="N100" t="s">
+        <v>32</v>
+      </c>
+      <c r="O100" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" t="s">
+        <v>22</v>
+      </c>
+      <c r="I101" t="s">
+        <v>25</v>
+      </c>
+      <c r="J101" t="s">
+        <v>25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>25</v>
+      </c>
+      <c r="L101" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" t="s">
+        <v>32</v>
+      </c>
+      <c r="O101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" t="s">
+        <v>22</v>
+      </c>
+      <c r="I102" t="s">
+        <v>25</v>
+      </c>
+      <c r="J102" t="s">
+        <v>25</v>
+      </c>
+      <c r="K102" t="s">
+        <v>25</v>
+      </c>
+      <c r="L102" t="s">
+        <v>25</v>
+      </c>
+      <c r="M102" t="s">
+        <v>25</v>
+      </c>
+      <c r="N102" t="s">
+        <v>32</v>
+      </c>
+      <c r="O102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" t="s">
+        <v>25</v>
+      </c>
+      <c r="J103" t="s">
+        <v>25</v>
+      </c>
+      <c r="K103" t="s">
+        <v>25</v>
+      </c>
+      <c r="L103" t="s">
+        <v>25</v>
+      </c>
+      <c r="M103" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" t="s">
+        <v>32</v>
+      </c>
+      <c r="O103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>129</v>
+      </c>
+      <c r="B104" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" t="s">
+        <v>25</v>
+      </c>
+      <c r="J104" t="s">
+        <v>25</v>
+      </c>
+      <c r="K104" t="s">
+        <v>25</v>
+      </c>
+      <c r="L104" t="s">
+        <v>25</v>
+      </c>
+      <c r="M104" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" t="s">
+        <v>32</v>
+      </c>
+      <c r="O104" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" t="s">
+        <v>22</v>
+      </c>
+      <c r="I105" t="s">
+        <v>25</v>
+      </c>
+      <c r="J105" t="s">
+        <v>25</v>
+      </c>
+      <c r="K105" t="s">
+        <v>25</v>
+      </c>
+      <c r="L105" t="s">
+        <v>25</v>
+      </c>
+      <c r="M105" t="s">
+        <v>25</v>
+      </c>
+      <c r="N105" t="s">
+        <v>32</v>
+      </c>
+      <c r="O105" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>